--- a/data/trans_camb/P17G_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R2-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.05394117952106153</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4097986716671233</v>
+        <v>0.4097986716671235</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.568247308793086</v>
+        <v>-1.676037988453431</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.369665479148747</v>
+        <v>-1.244631108706889</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.51425356488622</v>
+        <v>-1.421126011337837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5810406573582183</v>
+        <v>-0.5773455232210447</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4075234040524288</v>
+        <v>-0.3964217285592904</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1287569736331209</v>
+        <v>0.2152692615682706</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7113462102402892</v>
+        <v>-0.7798994284861189</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4863998148103753</v>
+        <v>-0.5306694238598869</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2448386936322986</v>
+        <v>-0.2379147995001412</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2165555735156677</v>
+        <v>0.2962269233990031</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5503101547297193</v>
+        <v>0.5485929123497409</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4664267468713008</v>
+        <v>0.5285468267005443</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5591928509421435</v>
+        <v>0.573400596250509</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8754638609337425</v>
+        <v>0.9260126117968295</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.133254198039692</v>
+        <v>2.288357363431567</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2543454645979754</v>
+        <v>0.2414692419439112</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6102700379037995</v>
+        <v>0.5420842878972124</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.141881217712955</v>
+        <v>1.1683463434678</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.09603260648983955</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7295731188247726</v>
+        <v>0.7295731188247729</v>
       </c>
     </row>
     <row r="8">
@@ -779,30 +779,26 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>-0.8905907434868163</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.8078414680076759</v>
+        <v>-0.8159974995659887</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.678381157537413</v>
+        <v>-0.6810061728366933</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1897215341341108</v>
+        <v>-0.08486309382933581</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.794315659009067</v>
+        <v>-0.8006876224675092</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5732450279005613</v>
+        <v>-0.6096933341767922</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4027683316007458</v>
+        <v>-0.3560036802081435</v>
       </c>
     </row>
     <row r="9">
@@ -812,30 +808,26 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>1.302181799761675</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>3.010325325758144</v>
-      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>4.327361948289002</v>
+        <v>4.428967052451605</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.891746550803405</v>
+        <v>6.491650357206288</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>11.92310723784554</v>
+        <v>13.74171938392831</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.055977096127422</v>
+        <v>1.046739811669864</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.216388404321796</v>
+        <v>2.18999595149052</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.497727843070397</v>
+        <v>4.190421142774944</v>
       </c>
     </row>
     <row r="10">
@@ -885,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.178471672393787</v>
+        <v>-1.18035031958157</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.156508306312306</v>
+        <v>-1.022949111804507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.493562111628147</v>
+        <v>-1.560156357614476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.271569969116201</v>
+        <v>-1.302060591568672</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9690412228063797</v>
+        <v>-0.9302907846602428</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.070179536787961</v>
+        <v>-1.145335581776217</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.962174627653564</v>
+        <v>-0.9162911837517176</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5989981737310118</v>
+        <v>-0.6205358080008764</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.004996404134253</v>
+        <v>-1.015050556796988</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9484699926359863</v>
+        <v>0.9085362754497471</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9932015990476554</v>
+        <v>1.027807624419141</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3691882369224371</v>
+        <v>0.3795694472308592</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9251607941892719</v>
+        <v>0.8816453112094967</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.376042836245097</v>
+        <v>1.471491836925898</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9423959568370799</v>
+        <v>0.9158029966760012</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5781278723100305</v>
+        <v>0.5844777261307978</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9690820041861026</v>
+        <v>0.9287205226846504</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3825331378262448</v>
+        <v>0.4237914789361146</v>
       </c>
     </row>
     <row r="13">
@@ -990,31 +982,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6848893570186481</v>
+        <v>-0.6628701525071707</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6472635867814177</v>
+        <v>-0.5807734938036406</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8627237121485881</v>
+        <v>-0.8506952381901768</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5895856258466499</v>
+        <v>-0.5880320789994024</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4621333529621492</v>
+        <v>-0.4845019926185867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5189846537039136</v>
+        <v>-0.5434873938898807</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.532211154840537</v>
+        <v>-0.5085400388361698</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3664353832248131</v>
+        <v>-0.3686475545188918</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5657775173020908</v>
+        <v>-0.5571590630030544</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1017,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.256979238403013</v>
+        <v>1.249842299731965</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.36261609530626</v>
+        <v>1.37126035479262</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6290481125064609</v>
+        <v>0.6250576838051077</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9138206968851742</v>
+        <v>1.002855457140274</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.451275523634371</v>
+        <v>1.58456611959001</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9217940169926554</v>
+        <v>0.9124622019899531</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5586452824543022</v>
+        <v>0.5698001526766971</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9575982378616622</v>
+        <v>0.9019957923641376</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3913140466320519</v>
+        <v>0.4827950828588588</v>
       </c>
     </row>
     <row r="16">
@@ -1099,31 +1091,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.022681186362956</v>
+        <v>-1.004655788869732</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1763470966536894</v>
+        <v>-0.1454844138700921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7365108437887194</v>
+        <v>-0.7500448357771807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.10111257366377</v>
+        <v>-1.926186457362169</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.194300052994184</v>
+        <v>-1.221047531894561</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.327588450642967</v>
+        <v>-1.389745165240743</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.043345762769679</v>
+        <v>-1.13005768039474</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.276392166156864</v>
+        <v>-0.3411825871866758</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.7019555254534212</v>
+        <v>-0.705114276354867</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1126,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.130415150865011</v>
+        <v>1.052594088343681</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.566720856938084</v>
+        <v>2.744420410976954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.522595615707058</v>
+        <v>1.530115691995809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7616274591624728</v>
+        <v>0.7149918675981498</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.64543935132274</v>
+        <v>1.887208631593028</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.130986707089892</v>
+        <v>0.9917649004938069</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6059285059366766</v>
+        <v>0.5321885178588448</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.708191279221398</v>
+        <v>1.713762728001156</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.956083775104963</v>
+        <v>0.9472211037896739</v>
       </c>
     </row>
     <row r="19">
@@ -1204,31 +1196,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5424415698676739</v>
+        <v>-0.5385090912639084</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1248539079851395</v>
+        <v>-0.096588094245288</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4090514511520814</v>
+        <v>-0.4056623715454103</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7086480477505859</v>
+        <v>-0.6593842461025878</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4439423609968116</v>
+        <v>-0.440912803020409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4431405851253193</v>
+        <v>-0.4733494502321439</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4891317236475142</v>
+        <v>-0.5225974649848352</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.129528985973541</v>
+        <v>-0.1629684803152172</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3159697326591176</v>
+        <v>-0.3160643116779774</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1231,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.038668972752385</v>
+        <v>1.049065924697177</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.515125838794212</v>
+        <v>2.548921600119001</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.5525051109859</v>
+        <v>1.429272222377586</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5170951220972891</v>
+        <v>0.4948057294448204</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.169059018120667</v>
+        <v>1.306452284467408</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.781941204658363</v>
+        <v>0.6381407759822744</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4426709927030361</v>
+        <v>0.3836393413860339</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.23066862458935</v>
+        <v>1.20003833276974</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6347093267876949</v>
+        <v>0.6248172419272436</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1276,7 @@
         <v>2.237007283929543</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.658467078531689</v>
+        <v>1.658467078531687</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.245648426628992</v>
@@ -1313,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.392642763828803</v>
+        <v>-1.233201090786987</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3865767573385572</v>
+        <v>-0.08973625401901836</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4797173252726086</v>
+        <v>-0.4143380251227344</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.967116886514308</v>
+        <v>-3.64980781036227</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.952154953802552</v>
+        <v>-1.960251683755293</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.194547597844482</v>
+        <v>-2.067069282642772</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.629468301307794</v>
+        <v>-1.826758354596509</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.217760395977165</v>
+        <v>-0.289607822742739</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2690616304711652</v>
+        <v>-0.2513365170020169</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.73893162702943</v>
+        <v>3.477254422346314</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.314917967323777</v>
+        <v>4.773047199177427</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.681097999599856</v>
+        <v>3.611204667134134</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.144617033287968</v>
+        <v>1.090333255653642</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.69144921670064</v>
+        <v>3.70197358901666</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.674892743915354</v>
+        <v>2.56218023857617</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.630875440335563</v>
+        <v>1.663994728332607</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.457807551955524</v>
+        <v>3.479569633036239</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.71843677589114</v>
+        <v>2.708173467114769</v>
       </c>
     </row>
     <row r="25">
@@ -1389,7 +1381,7 @@
         <v>1.034791711092838</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7671713893440314</v>
+        <v>0.7671713893440308</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3607240894085345</v>
@@ -1407,7 +1399,7 @@
         <v>0.5954541143230053</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4365510971467616</v>
+        <v>0.4365510971467614</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4981047117854353</v>
+        <v>-0.4736104954339472</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1835632156532971</v>
+        <v>-0.1495350947554817</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1919473633947706</v>
+        <v>-0.1806346384865055</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7481835381812558</v>
+        <v>-0.739618467336186</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.40573234158224</v>
+        <v>-0.4503461005586939</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3940042762018746</v>
+        <v>-0.3938977051535493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4856206658234472</v>
+        <v>-0.4825250447969726</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08755322254381682</v>
+        <v>-0.09931316703103328</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.08114213577083612</v>
+        <v>-0.09553546436964276</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.079069417868634</v>
+        <v>2.493561180687329</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.602843842230281</v>
+        <v>3.845122970905428</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.365346587172523</v>
+        <v>3.345937624899669</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7713331079694586</v>
+        <v>0.6083894141426751</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.805955575015754</v>
+        <v>1.78812899651501</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.480625489915804</v>
+        <v>1.370690242023491</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8624454373636256</v>
+        <v>0.9241113000456668</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.660142349936633</v>
+        <v>1.813173242252389</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.611609818989823</v>
+        <v>1.555259567528681</v>
       </c>
     </row>
     <row r="28">
@@ -1516,7 +1508,7 @@
         <v>0.3358435502213893</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.5720310928504687</v>
+        <v>0.5720310928504694</v>
       </c>
     </row>
     <row r="29">
@@ -1527,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6745221734716487</v>
+        <v>-0.6740741355491053</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2497488161827884</v>
+        <v>-0.2046857424980944</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.145578984089757</v>
+        <v>-0.1142980262460608</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9878316031886645</v>
+        <v>-0.9764373623514668</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3916723508172051</v>
+        <v>-0.4717998168289149</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05755048322176916</v>
+        <v>-0.03444539498699606</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6446443897771622</v>
+        <v>-0.6880240353927705</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.126168310356102</v>
+        <v>-0.1107215436133364</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1051261363912915</v>
+        <v>0.1198657078604152</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4981728441493413</v>
+        <v>0.4975346435839108</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.143978034932762</v>
+        <v>1.080855668121536</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.219106628646027</v>
+        <v>1.181117394843846</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2118073406381887</v>
+        <v>0.209993275386181</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8663544882375412</v>
+        <v>0.8936790366339235</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.298283569557865</v>
+        <v>1.221556563693005</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.209799402048104</v>
+        <v>0.1551797724018696</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8207708738141494</v>
+        <v>0.8092016757969164</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.045828809602789</v>
+        <v>1.018430998141828</v>
       </c>
     </row>
     <row r="31">
@@ -1621,7 +1613,7 @@
         <v>0.2237754269708625</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3811492046187587</v>
+        <v>0.3811492046187592</v>
       </c>
     </row>
     <row r="32">
@@ -1632,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.425317479649333</v>
+        <v>-0.397708502747433</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1572862951040341</v>
+        <v>-0.1316895726231037</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.09787001223141158</v>
+        <v>-0.08269352219537088</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5014526284656436</v>
+        <v>-0.4960909400151501</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2118991284091216</v>
+        <v>-0.2490895362173286</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003209243705506595</v>
+        <v>-0.02044517255174207</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3741933632070244</v>
+        <v>-0.3923611547862436</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.08471809927058495</v>
+        <v>-0.06809967026312047</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.06324130062973135</v>
+        <v>0.0710622325349496</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4756066386883228</v>
+        <v>0.4788986846158897</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9927504699257983</v>
+        <v>1.014976789470761</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.111805455634559</v>
+        <v>1.118687515300432</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1660843066297487</v>
+        <v>0.1829291508509663</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.640954129075565</v>
+        <v>0.6695491841028661</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9632482172745953</v>
+        <v>0.9459701289290201</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1824113961703672</v>
+        <v>0.1322468557150617</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6492559972859795</v>
+        <v>0.6163844178521983</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.844009051741939</v>
+        <v>0.7833328675982757</v>
       </c>
     </row>
     <row r="34">
